--- a/DATA TESTING & DATA UJI/datalatih.xlsx
+++ b/DATA TESTING & DATA UJI/datalatih.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>jenis</t>
   </si>
@@ -44,15 +44,6 @@
   </si>
   <si>
     <t>bentuk</t>
-  </si>
-  <si>
-    <t>Busuk</t>
-  </si>
-  <si>
-    <t>Retak</t>
-  </si>
-  <si>
-    <t>Spek</t>
   </si>
   <si>
     <t>G0_kontras</t>
@@ -74,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,12 +75,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -126,11 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -349,8 +333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="C206" sqref="C206"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -367,8 +351,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>11</v>
+      <c r="A1" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -383,16 +367,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="J1" s="3"/>
     </row>
@@ -400,8 +384,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" s="1">
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>0.28700502635773001</v>
@@ -429,8 +413,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="B3" s="1">
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>0.32265538801029803</v>
@@ -458,8 +442,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
+      <c r="B4" s="1">
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>0.47258796126026698</v>
@@ -487,8 +471,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
+      <c r="B5" s="1">
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>0.223525806056148</v>
@@ -516,8 +500,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
+      <c r="B6" s="1">
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>0.35401495647909798</v>
@@ -545,8 +529,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
+      <c r="B7" s="1">
+        <v>0</v>
       </c>
       <c r="C7" s="1">
         <v>0.59540272158882002</v>
@@ -574,8 +558,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
+      <c r="B8" s="1">
+        <v>0</v>
       </c>
       <c r="C8" s="1">
         <v>0.29776878754443997</v>
@@ -603,8 +587,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
+      <c r="B9" s="1">
+        <v>0</v>
       </c>
       <c r="C9" s="1">
         <v>0.34003923010910903</v>
@@ -632,8 +616,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
+      <c r="B10" s="1">
+        <v>0</v>
       </c>
       <c r="C10" s="1">
         <v>0.220019615054554</v>
@@ -661,8 +645,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
+      <c r="B11" s="1">
+        <v>0</v>
       </c>
       <c r="C11" s="1">
         <v>0.37027093294103203</v>
@@ -690,8 +674,8 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
+      <c r="B12" s="1">
+        <v>0</v>
       </c>
       <c r="C12" s="1">
         <v>0.30252543827387501</v>
@@ -719,8 +703,8 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
+      <c r="B13" s="1">
+        <v>0</v>
       </c>
       <c r="C13" s="1">
         <v>0.39152874831433099</v>
@@ -748,8 +732,8 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
+      <c r="B14" s="1">
+        <v>0</v>
       </c>
       <c r="C14" s="1">
         <v>0.31637857055289897</v>
@@ -777,8 +761,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
+      <c r="B15" s="1">
+        <v>0</v>
       </c>
       <c r="C15" s="1">
         <v>0.30941522618609801</v>
@@ -806,8 +790,8 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
+      <c r="B16" s="1">
+        <v>0</v>
       </c>
       <c r="C16" s="1">
         <v>0.26202035061910001</v>
@@ -835,8 +819,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
+      <c r="B17" s="1">
+        <v>0</v>
       </c>
       <c r="C17" s="1">
         <v>0.21464999387029499</v>
@@ -864,8 +848,8 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
+      <c r="B18" s="1">
+        <v>0</v>
       </c>
       <c r="C18" s="1">
         <v>0.24318989824690401</v>
@@ -893,8 +877,8 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>4</v>
+      <c r="B19" s="1">
+        <v>0</v>
       </c>
       <c r="C19" s="1">
         <v>0.23804094642638199</v>
@@ -922,8 +906,8 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>4</v>
+      <c r="B20" s="1">
+        <v>0</v>
       </c>
       <c r="C20" s="1">
         <v>0.19809979159004501</v>
@@ -951,8 +935,8 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>4</v>
+      <c r="B21" s="1">
+        <v>0</v>
       </c>
       <c r="C21" s="1">
         <v>0.202022802500919</v>
@@ -980,8 +964,8 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
+      <c r="B22" s="1">
+        <v>0</v>
       </c>
       <c r="C22" s="1">
         <v>0.23340688978791199</v>
@@ -1009,8 +993,8 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
+      <c r="B23" s="1">
+        <v>0</v>
       </c>
       <c r="C23" s="1">
         <v>0.29205590290548</v>
@@ -1038,8 +1022,8 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
+      <c r="B24" s="1">
+        <v>0</v>
       </c>
       <c r="C24" s="1">
         <v>0.32179722937354399</v>
@@ -1067,8 +1051,8 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>4</v>
+      <c r="B25" s="1">
+        <v>0</v>
       </c>
       <c r="C25" s="1">
         <v>0.38505578031138898</v>
@@ -1096,8 +1080,8 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
+      <c r="B26" s="1">
+        <v>0</v>
       </c>
       <c r="C26" s="1">
         <v>0.36073311266397001</v>
@@ -1125,8 +1109,8 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
+      <c r="B27" s="1">
+        <v>0</v>
       </c>
       <c r="C27" s="1">
         <v>0.31162191982346499</v>
@@ -1154,8 +1138,8 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
+      <c r="B28" s="1">
+        <v>0</v>
       </c>
       <c r="C28" s="1">
         <v>0.29573372563442402</v>
@@ -1183,8 +1167,8 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>4</v>
+      <c r="B29" s="1">
+        <v>0</v>
       </c>
       <c r="C29" s="1">
         <v>0.31186710800539402</v>
@@ -1212,8 +1196,8 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
+      <c r="B30" s="1">
+        <v>0</v>
       </c>
       <c r="C30" s="1">
         <v>0.23603040333455899</v>
@@ -1241,8 +1225,8 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>4</v>
+      <c r="B31" s="1">
+        <v>0</v>
       </c>
       <c r="C31" s="1">
         <v>0.58473703567488</v>
@@ -1270,8 +1254,8 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
+      <c r="B32" s="1">
+        <v>0</v>
       </c>
       <c r="C32" s="1">
         <v>0.41283560132401598</v>
@@ -1299,8 +1283,8 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>4</v>
+      <c r="B33" s="1">
+        <v>0</v>
       </c>
       <c r="C33" s="1">
         <v>0.41898982469044999</v>
@@ -1328,8 +1312,8 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>4</v>
+      <c r="B34" s="1">
+        <v>0</v>
       </c>
       <c r="C34" s="1">
         <v>0.22597768787544401</v>
@@ -1357,8 +1341,8 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>4</v>
+      <c r="B35" s="1">
+        <v>0</v>
       </c>
       <c r="C35" s="1">
         <v>0.237820277062646</v>
@@ -1386,8 +1370,8 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>4</v>
+      <c r="B36" s="1">
+        <v>0</v>
       </c>
       <c r="C36" s="1">
         <v>0.16085570675493399</v>
@@ -1415,8 +1399,8 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>4</v>
+      <c r="B37" s="1">
+        <v>0</v>
       </c>
       <c r="C37" s="1">
         <v>0.15972784111805799</v>
@@ -1444,8 +1428,8 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>4</v>
+      <c r="B38" s="1">
+        <v>0</v>
       </c>
       <c r="C38" s="1">
         <v>0.189174941767807</v>
@@ -1473,8 +1457,8 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>4</v>
+      <c r="B39" s="1">
+        <v>0</v>
       </c>
       <c r="C39" s="1">
         <v>0.30929263209513302</v>
@@ -1502,8 +1486,8 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>4</v>
+      <c r="B40" s="1">
+        <v>0</v>
       </c>
       <c r="C40" s="1">
         <v>0.32179722937354399</v>
@@ -1531,8 +1515,8 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>4</v>
+      <c r="B41" s="1">
+        <v>0</v>
       </c>
       <c r="C41" s="1">
         <v>0.29995096236361402</v>
@@ -1560,8 +1544,8 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>4</v>
+      <c r="B42" s="1">
+        <v>0</v>
       </c>
       <c r="C42" s="1">
         <v>0.26204486943729299</v>
@@ -1589,8 +1573,8 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>4</v>
+      <c r="B43" s="1">
+        <v>0</v>
       </c>
       <c r="C43" s="1">
         <v>0.25321809488782598</v>
@@ -1618,8 +1602,8 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>4</v>
+      <c r="B44" s="1">
+        <v>0</v>
       </c>
       <c r="C44" s="1">
         <v>0.29097707490498997</v>
@@ -1647,8 +1631,8 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>4</v>
+      <c r="B45" s="1">
+        <v>0</v>
       </c>
       <c r="C45" s="1">
         <v>0.30438886845654001</v>
@@ -1676,8 +1660,8 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>4</v>
+      <c r="B46" s="1">
+        <v>0</v>
       </c>
       <c r="C46" s="1">
         <v>0.32437170528380499</v>
@@ -1705,8 +1689,8 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>4</v>
+      <c r="B47" s="1">
+        <v>0</v>
       </c>
       <c r="C47" s="1">
         <v>0.17340934166973199</v>
@@ -1734,8 +1718,8 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>4</v>
+      <c r="B48" s="1">
+        <v>0</v>
       </c>
       <c r="C48" s="1">
         <v>0.18535000612970501</v>
@@ -1763,8 +1747,8 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>4</v>
+      <c r="B49" s="1">
+        <v>0</v>
       </c>
       <c r="C49" s="1">
         <v>0.37304155939683697</v>
@@ -1792,8 +1776,8 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>4</v>
+      <c r="B50" s="1">
+        <v>0</v>
       </c>
       <c r="C50" s="1">
         <v>0.16723059948510499</v>
@@ -1821,8 +1805,8 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>4</v>
+      <c r="B51" s="1">
+        <v>0</v>
       </c>
       <c r="C51" s="1">
         <v>0.42725266642147902</v>
@@ -1850,8 +1834,8 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>4</v>
+      <c r="B52" s="1">
+        <v>0</v>
       </c>
       <c r="C52" s="1">
         <v>0.41744513914429299</v>
@@ -1879,8 +1863,8 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>4</v>
+      <c r="B53" s="1">
+        <v>0</v>
       </c>
       <c r="C53" s="1">
         <v>0.24370479342895701</v>
@@ -1908,8 +1892,8 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>4</v>
+      <c r="B54" s="1">
+        <v>0</v>
       </c>
       <c r="C54" s="1">
         <v>0.34369253401986</v>
@@ -1937,8 +1921,8 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>4</v>
+      <c r="B55" s="1">
+        <v>0</v>
       </c>
       <c r="C55" s="1">
         <v>0.202341547137428</v>
@@ -1966,8 +1950,8 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>4</v>
+      <c r="B56" s="1">
+        <v>0</v>
       </c>
       <c r="C56" s="1">
         <v>0.18606105185730001</v>
@@ -1995,8 +1979,8 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>4</v>
+      <c r="B57" s="1">
+        <v>0</v>
       </c>
       <c r="C57" s="1">
         <v>0.36387152139266898</v>
@@ -2024,8 +2008,8 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>4</v>
+      <c r="B58" s="1">
+        <v>0</v>
       </c>
       <c r="C58" s="1">
         <v>0.26067181561848701</v>
@@ -2053,8 +2037,8 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>4</v>
+      <c r="B59" s="1">
+        <v>0</v>
       </c>
       <c r="C59" s="1">
         <v>0.17850925585386801</v>
@@ -2082,8 +2066,8 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>4</v>
+      <c r="B60" s="1">
+        <v>0</v>
       </c>
       <c r="C60" s="1">
         <v>0.35558416084344702</v>
@@ -2111,8 +2095,8 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>4</v>
+      <c r="B61" s="1">
+        <v>0</v>
       </c>
       <c r="C61" s="1">
         <v>0.13211965183278199</v>
@@ -2140,8 +2124,8 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>4</v>
+      <c r="B62" s="1">
+        <v>0</v>
       </c>
       <c r="C62" s="1">
         <v>0.201924727228148</v>
@@ -2169,8 +2153,8 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>4</v>
+      <c r="B63" s="1">
+        <v>0</v>
       </c>
       <c r="C63" s="1">
         <v>0.24409709452004399</v>
@@ -2198,8 +2182,8 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>4</v>
+      <c r="B64" s="1">
+        <v>0</v>
       </c>
       <c r="C64" s="1">
         <v>0.24179232560990599</v>
@@ -2227,8 +2211,8 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>4</v>
+      <c r="B65" s="1">
+        <v>0</v>
       </c>
       <c r="C65" s="1">
         <v>0.32285153855584198</v>
@@ -2256,8 +2240,8 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>4</v>
+      <c r="B66" s="1">
+        <v>0</v>
       </c>
       <c r="C66" s="1">
         <v>0.15921294593600599</v>
@@ -2285,8 +2269,8 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>4</v>
+      <c r="B67" s="1">
+        <v>0</v>
       </c>
       <c r="C67" s="1">
         <v>0.188709084222141</v>
@@ -2314,8 +2298,8 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>4</v>
+      <c r="B68" s="1">
+        <v>0</v>
       </c>
       <c r="C68" s="1">
         <v>0.31647664582567098</v>
@@ -2343,8 +2327,8 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>4</v>
+      <c r="B69" s="1">
+        <v>0</v>
       </c>
       <c r="C69" s="1">
         <v>0.576719382125782</v>
@@ -2372,8 +2356,8 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>4</v>
+      <c r="B70" s="1">
+        <v>0</v>
       </c>
       <c r="C70" s="1">
         <v>0.62953291651342402</v>
@@ -2401,8 +2385,8 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>4</v>
+      <c r="B71" s="1">
+        <v>0</v>
       </c>
       <c r="C71" s="1">
         <v>0.40501409832046098</v>
@@ -2430,8 +2414,8 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>5</v>
+      <c r="B72" s="1">
+        <v>1</v>
       </c>
       <c r="C72" s="1">
         <v>0.30198602427363003</v>
@@ -2459,8 +2443,8 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>5</v>
+      <c r="B73" s="1">
+        <v>1</v>
       </c>
       <c r="C73" s="1">
         <v>0.211119284050509</v>
@@ -2488,8 +2472,8 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>5</v>
+      <c r="B74" s="1">
+        <v>1</v>
       </c>
       <c r="C74" s="1">
         <v>0.13126149319602801</v>
@@ -2517,8 +2501,8 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>5</v>
+      <c r="B75" s="1">
+        <v>1</v>
       </c>
       <c r="C75" s="1">
         <v>0.12603898492092699</v>
@@ -2546,8 +2530,8 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>5</v>
+      <c r="B76" s="1">
+        <v>1</v>
       </c>
       <c r="C76" s="1">
         <v>0.22663969596665401</v>
@@ -2575,8 +2559,8 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>5</v>
+      <c r="B77" s="1">
+        <v>1</v>
       </c>
       <c r="C77" s="1">
         <v>0.23583425278901601</v>
@@ -2604,8 +2588,8 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>5</v>
+      <c r="B78" s="1">
+        <v>1</v>
       </c>
       <c r="C78" s="1">
         <v>0.222741203873973</v>
@@ -2633,8 +2617,8 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>5</v>
+      <c r="B79" s="1">
+        <v>1</v>
       </c>
       <c r="C79" s="1">
         <v>0.117751624371705</v>
@@ -2662,8 +2646,8 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>5</v>
+      <c r="B80" s="1">
+        <v>1</v>
       </c>
       <c r="C80" s="1">
         <v>9.9632217727105593E-2</v>
@@ -2691,8 +2675,8 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>5</v>
+      <c r="B81" s="1">
+        <v>1</v>
       </c>
       <c r="C81" s="1">
         <v>0.191994605859998</v>
@@ -2720,8 +2704,8 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>5</v>
+      <c r="B82" s="1">
+        <v>1</v>
       </c>
       <c r="C82" s="1">
         <v>0.17174206203261</v>
@@ -2749,8 +2733,8 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>5</v>
+      <c r="B83" s="1">
+        <v>1</v>
       </c>
       <c r="C83" s="1">
         <v>0.131531200196151</v>
@@ -2778,8 +2762,8 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>5</v>
+      <c r="B84" s="1">
+        <v>1</v>
       </c>
       <c r="C84" s="1">
         <v>0.21477258796126</v>
@@ -2807,8 +2791,8 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>5</v>
+      <c r="B85" s="1">
+        <v>1</v>
       </c>
       <c r="C85" s="1">
         <v>0.23296555106043901</v>
@@ -2836,8 +2820,8 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>5</v>
+      <c r="B86" s="1">
+        <v>1</v>
       </c>
       <c r="C86" s="1">
         <v>0.31073924236851802</v>
@@ -2865,8 +2849,8 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>5</v>
+      <c r="B87" s="1">
+        <v>1</v>
       </c>
       <c r="C87" s="1">
         <v>0.29745004290793198</v>
@@ -2894,8 +2878,8 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>5</v>
+      <c r="B88" s="1">
+        <v>1</v>
       </c>
       <c r="C88" s="1">
         <v>0.15185730047811699</v>
@@ -2923,8 +2907,8 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>5</v>
+      <c r="B89" s="1">
+        <v>1</v>
       </c>
       <c r="C89" s="1">
         <v>0.31346083118793699</v>
@@ -2952,8 +2936,8 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>5</v>
+      <c r="B90" s="1">
+        <v>1</v>
       </c>
       <c r="C90" s="1">
         <v>0.283842098810837</v>
@@ -2981,8 +2965,8 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>5</v>
+      <c r="B91" s="1">
+        <v>1</v>
       </c>
       <c r="C91" s="1">
         <v>0.32027706264558098</v>
@@ -3010,8 +2994,8 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>5</v>
+      <c r="B92" s="1">
+        <v>1</v>
       </c>
       <c r="C92" s="1">
         <v>0.128907686649504</v>
@@ -3039,8 +3023,8 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>5</v>
+      <c r="B93" s="1">
+        <v>1</v>
       </c>
       <c r="C93" s="1">
         <v>0.168039720485473</v>
@@ -3068,8 +3052,8 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>5</v>
+      <c r="B94" s="1">
+        <v>1</v>
       </c>
       <c r="C94" s="1">
         <v>0.185987495402722</v>
@@ -3097,8 +3081,8 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>5</v>
+      <c r="B95" s="1">
+        <v>1</v>
       </c>
       <c r="C95" s="1">
         <v>0.23377467206080699</v>
@@ -3126,8 +3110,8 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>5</v>
+      <c r="B96" s="1">
+        <v>1</v>
       </c>
       <c r="C96" s="1">
         <v>0.308311879367415</v>
@@ -3155,8 +3139,8 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>5</v>
+      <c r="B97" s="1">
+        <v>1</v>
       </c>
       <c r="C97" s="1">
         <v>0.23860487924481999</v>
@@ -3184,8 +3168,8 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>5</v>
+      <c r="B98" s="1">
+        <v>1</v>
       </c>
       <c r="C98" s="1">
         <v>0.31250459727841101</v>
@@ -3213,8 +3197,8 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>5</v>
+      <c r="B99" s="1">
+        <v>1</v>
       </c>
       <c r="C99" s="1">
         <v>0.19304891504229499</v>
@@ -3242,8 +3226,8 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>5</v>
+      <c r="B100" s="1">
+        <v>1</v>
       </c>
       <c r="C100" s="1">
         <v>0.106840750275837</v>
@@ -3271,8 +3255,8 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>5</v>
+      <c r="B101" s="1">
+        <v>1</v>
       </c>
       <c r="C101" s="1">
         <v>0.33881328919946102</v>
@@ -3300,8 +3284,8 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>5</v>
+      <c r="B102" s="1">
+        <v>1</v>
       </c>
       <c r="C102" s="1">
         <v>0.24569081770258699</v>
@@ -3329,8 +3313,8 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>5</v>
+      <c r="B103" s="1">
+        <v>1</v>
       </c>
       <c r="C103" s="1">
         <v>0.23818805933553999</v>
@@ -3358,8 +3342,8 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>5</v>
+      <c r="B104" s="1">
+        <v>1</v>
       </c>
       <c r="C104" s="1">
         <v>0.183045237219566</v>
@@ -3387,8 +3371,8 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>5</v>
+      <c r="B105" s="1">
+        <v>1</v>
       </c>
       <c r="C105" s="1">
         <v>0.22656613951207599</v>
@@ -3416,8 +3400,8 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>5</v>
+      <c r="B106" s="1">
+        <v>1</v>
       </c>
       <c r="C106" s="1">
         <v>0.12564668382983901</v>
@@ -3445,8 +3429,8 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>5</v>
+      <c r="B107" s="1">
+        <v>1</v>
       </c>
       <c r="C107" s="1">
         <v>0.31870785828123099</v>
@@ -3474,8 +3458,8 @@
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>5</v>
+      <c r="B108" s="1">
+        <v>1</v>
       </c>
       <c r="C108" s="1">
         <v>0.123023170283192</v>
@@ -3503,8 +3487,8 @@
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>5</v>
+      <c r="B109" s="1">
+        <v>1</v>
       </c>
       <c r="C109" s="1">
         <v>0.30294225818315601</v>
@@ -3532,8 +3516,8 @@
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>5</v>
+      <c r="B110" s="1">
+        <v>1</v>
       </c>
       <c r="C110" s="1">
         <v>0.20986882432266801</v>
@@ -3561,8 +3545,8 @@
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>5</v>
+      <c r="B111" s="1">
+        <v>1</v>
       </c>
       <c r="C111" s="1">
         <v>0.14594826529361299</v>
@@ -3590,8 +3574,8 @@
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>5</v>
+      <c r="B112" s="1">
+        <v>1</v>
       </c>
       <c r="C112" s="1">
         <v>0.11760451146254799</v>
@@ -3619,8 +3603,8 @@
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>5</v>
+      <c r="B113" s="1">
+        <v>1</v>
       </c>
       <c r="C113" s="1">
         <v>0.18549711903886201</v>
@@ -3648,8 +3632,8 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>5</v>
+      <c r="B114" s="1">
+        <v>1</v>
       </c>
       <c r="C114" s="1">
         <v>0.16955988721343601</v>
@@ -3677,8 +3661,8 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>5</v>
+      <c r="B115" s="1">
+        <v>1</v>
       </c>
       <c r="C115" s="1">
         <v>0.13285521637857101</v>
@@ -3706,8 +3690,8 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>5</v>
+      <c r="B116" s="1">
+        <v>1</v>
       </c>
       <c r="C116" s="1">
         <v>0.24431776388378099</v>
@@ -3735,8 +3719,8 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>5</v>
+      <c r="B117" s="1">
+        <v>1</v>
       </c>
       <c r="C117" s="1">
         <v>0.150655878386662</v>
@@ -3764,8 +3748,8 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>5</v>
+      <c r="B118" s="1">
+        <v>1</v>
       </c>
       <c r="C118" s="1">
         <v>0.110371460095623</v>
@@ -3793,8 +3777,8 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>5</v>
+      <c r="B119" s="1">
+        <v>1</v>
       </c>
       <c r="C119" s="1">
         <v>0.165514282211597</v>
@@ -3822,8 +3806,8 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>5</v>
+      <c r="B120" s="1">
+        <v>1</v>
       </c>
       <c r="C120" s="1">
         <v>9.9901924727228197E-2</v>
@@ -3851,8 +3835,8 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>5</v>
+      <c r="B121" s="1">
+        <v>1</v>
       </c>
       <c r="C121" s="1">
         <v>0.196579624862082</v>
@@ -3880,8 +3864,8 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>5</v>
+      <c r="B122" s="1">
+        <v>1</v>
       </c>
       <c r="C122" s="1">
         <v>0.167475787667034</v>
@@ -3909,8 +3893,8 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>5</v>
+      <c r="B123" s="1">
+        <v>1</v>
       </c>
       <c r="C123" s="1">
         <v>0.16436189775652801</v>
@@ -3938,8 +3922,8 @@
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>5</v>
+      <c r="B124" s="1">
+        <v>1</v>
       </c>
       <c r="C124" s="1">
         <v>0.23850680397204899</v>
@@ -3967,8 +3951,8 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>5</v>
+      <c r="B125" s="1">
+        <v>1</v>
       </c>
       <c r="C125" s="1">
         <v>0.25282579379673897</v>
@@ -3996,8 +3980,8 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>5</v>
+      <c r="B126" s="1">
+        <v>1</v>
       </c>
       <c r="C126" s="1">
         <v>0.13319847983327199</v>
@@ -4025,8 +4009,8 @@
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>5</v>
+      <c r="B127" s="1">
+        <v>1</v>
       </c>
       <c r="C127" s="1">
         <v>0.33768542356258402</v>
@@ -4054,8 +4038,8 @@
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>5</v>
+      <c r="B128" s="1">
+        <v>1</v>
       </c>
       <c r="C128" s="1">
         <v>0.21984798332720401</v>
@@ -4083,8 +4067,8 @@
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>5</v>
+      <c r="B129" s="1">
+        <v>1</v>
       </c>
       <c r="C129" s="1">
         <v>0.23355400269707</v>
@@ -4112,8 +4096,8 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>5</v>
+      <c r="B130" s="1">
+        <v>1</v>
       </c>
       <c r="C130" s="1">
         <v>0.16519553757508901</v>
@@ -4141,8 +4125,8 @@
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>5</v>
+      <c r="B131" s="1">
+        <v>1</v>
       </c>
       <c r="C131" s="1">
         <v>0.113975726369989</v>
@@ -4170,8 +4154,8 @@
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>5</v>
+      <c r="B132" s="1">
+        <v>1</v>
       </c>
       <c r="C132" s="1">
         <v>0.16853009684933201</v>
@@ -4199,8 +4183,8 @@
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>5</v>
+      <c r="B133" s="1">
+        <v>1</v>
       </c>
       <c r="C133" s="1">
         <v>9.4164521270074797E-2</v>
@@ -4228,8 +4212,8 @@
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>5</v>
+      <c r="B134" s="1">
+        <v>1</v>
       </c>
       <c r="C134" s="1">
         <v>0.13900943974500399</v>
@@ -4257,8 +4241,8 @@
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>5</v>
+      <c r="B135" s="1">
+        <v>1</v>
       </c>
       <c r="C135" s="1">
         <v>9.3845776633566302E-2</v>
@@ -4286,8 +4270,8 @@
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>5</v>
+      <c r="B136" s="1">
+        <v>1</v>
       </c>
       <c r="C136" s="1">
         <v>0.18873360304033299</v>
@@ -4315,8 +4299,8 @@
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>5</v>
+      <c r="B137" s="1">
+        <v>1</v>
       </c>
       <c r="C137" s="1">
         <v>0.34724776265784002</v>
@@ -4344,8 +4328,8 @@
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>5</v>
+      <c r="B138" s="1">
+        <v>1</v>
       </c>
       <c r="C138" s="1">
         <v>0.17757754076253501</v>
@@ -4373,8 +4357,8 @@
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>5</v>
+      <c r="B139" s="1">
+        <v>1</v>
       </c>
       <c r="C139" s="1">
         <v>0.25128110825058197</v>
@@ -4402,8 +4386,8 @@
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>5</v>
+      <c r="B140" s="1">
+        <v>1</v>
       </c>
       <c r="C140" s="1">
         <v>0.174978546034081</v>
@@ -4431,8 +4415,8 @@
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>5</v>
+      <c r="B141" s="1">
+        <v>1</v>
       </c>
       <c r="C141" s="1">
         <v>0.110322422459237</v>
@@ -4460,8 +4444,8 @@
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>6</v>
+      <c r="B142" s="1">
+        <v>2</v>
       </c>
       <c r="C142" s="1">
         <v>0.22448203996567401</v>
@@ -4489,8 +4473,8 @@
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>6</v>
+      <c r="B143" s="1">
+        <v>2</v>
       </c>
       <c r="C143" s="1">
         <v>0.17242858894201299</v>
@@ -4518,8 +4502,8 @@
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>6</v>
+      <c r="B144" s="1">
+        <v>2</v>
       </c>
       <c r="C144" s="1">
         <v>0.111352212823342</v>
@@ -4547,8 +4531,8 @@
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>6</v>
+      <c r="B145" s="1">
+        <v>2</v>
       </c>
       <c r="C145" s="1">
         <v>0.15619713129827101</v>
@@ -4576,8 +4560,8 @@
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>6</v>
+      <c r="B146" s="1">
+        <v>2</v>
       </c>
       <c r="C146" s="1">
         <v>0.117653549098933</v>
@@ -4605,8 +4589,8 @@
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>6</v>
+      <c r="B147" s="1">
+        <v>2</v>
       </c>
       <c r="C147" s="1">
         <v>0.16904499203138401</v>
@@ -4634,8 +4618,8 @@
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>6</v>
+      <c r="B148" s="1">
+        <v>2</v>
       </c>
       <c r="C148" s="1">
         <v>0.12172367291896501</v>
@@ -4663,8 +4647,8 @@
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>6</v>
+      <c r="B149" s="1">
+        <v>2</v>
       </c>
       <c r="C149" s="1">
         <v>0.20945200441338699</v>
@@ -4692,8 +4676,8 @@
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>6</v>
+      <c r="B150" s="1">
+        <v>2</v>
       </c>
       <c r="C150" s="1">
         <v>0.14028441829103799</v>
@@ -4721,8 +4705,8 @@
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>6</v>
+      <c r="B151" s="1">
+        <v>2</v>
       </c>
       <c r="C151" s="1">
         <v>0.25159985288709102</v>
@@ -4750,8 +4734,8 @@
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>6</v>
+      <c r="B152" s="1">
+        <v>2</v>
       </c>
       <c r="C152" s="1">
         <v>0.32581831555718999</v>
@@ -4779,8 +4763,8 @@
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>6</v>
+      <c r="B153" s="1">
+        <v>2</v>
       </c>
       <c r="C153" s="1">
         <v>0.13574843692534</v>
@@ -4808,8 +4792,8 @@
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>6</v>
+      <c r="B154" s="1">
+        <v>2</v>
       </c>
       <c r="C154" s="1">
         <v>0.122042417555474</v>
@@ -4837,8 +4821,8 @@
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>6</v>
+      <c r="B155" s="1">
+        <v>2</v>
       </c>
       <c r="C155" s="1">
         <v>9.6199583180090698E-2</v>
@@ -4866,8 +4850,8 @@
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>6</v>
+      <c r="B156" s="1">
+        <v>2</v>
       </c>
       <c r="C156" s="1">
         <v>0.16132156430060099</v>
@@ -4895,8 +4879,8 @@
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>6</v>
+      <c r="B157" s="1">
+        <v>2</v>
       </c>
       <c r="C157" s="1">
         <v>0.158158636753708</v>
@@ -4924,8 +4908,8 @@
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>6</v>
+      <c r="B158" s="1">
+        <v>2</v>
       </c>
       <c r="C158" s="1">
         <v>0.135944587470884</v>
@@ -4953,8 +4937,8 @@
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>6</v>
+      <c r="B159" s="1">
+        <v>2</v>
       </c>
       <c r="C159" s="1">
         <v>0.142834375383107</v>
@@ -4982,8 +4966,8 @@
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>6</v>
+      <c r="B160" s="1">
+        <v>2</v>
       </c>
       <c r="C160" s="1">
         <v>0.16617629030280701</v>
@@ -5011,8 +4995,8 @@
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>6</v>
+      <c r="B161" s="1">
+        <v>2</v>
       </c>
       <c r="C161" s="1">
         <v>0.323636140738017</v>
@@ -5040,8 +5024,8 @@
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>6</v>
+      <c r="B162" s="1">
+        <v>2</v>
       </c>
       <c r="C162" s="1">
         <v>0.18488414858403801</v>
@@ -5069,8 +5053,8 @@
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>6</v>
+      <c r="B163" s="1">
+        <v>2</v>
       </c>
       <c r="C163" s="1">
         <v>0.19849209268113299</v>
@@ -5098,8 +5082,8 @@
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>6</v>
+      <c r="B164" s="1">
+        <v>2</v>
       </c>
       <c r="C164" s="1">
         <v>0.141191614564178</v>
@@ -5127,8 +5111,8 @@
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>6</v>
+      <c r="B165" s="1">
+        <v>2</v>
       </c>
       <c r="C165" s="1">
         <v>0.15833026848105899</v>
@@ -5156,8 +5140,8 @@
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>6</v>
+      <c r="B166" s="1">
+        <v>2</v>
       </c>
       <c r="C166" s="1">
         <v>0.35889420129949701</v>
@@ -5185,8 +5169,8 @@
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>6</v>
+      <c r="B167" s="1">
+        <v>2</v>
       </c>
       <c r="C167" s="1">
         <v>0.14406031629275501</v>
@@ -5214,8 +5198,8 @@
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>6</v>
+      <c r="B168" s="1">
+        <v>2</v>
       </c>
       <c r="C168" s="1">
         <v>0.263466960892485</v>
@@ -5243,8 +5227,8 @@
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>6</v>
+      <c r="B169" s="1">
+        <v>2</v>
       </c>
       <c r="C169" s="1">
         <v>0.12922643128601199</v>
@@ -5272,8 +5256,8 @@
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>6</v>
+      <c r="B170" s="1">
+        <v>2</v>
       </c>
       <c r="C170" s="1">
         <v>0.209231335049651</v>
@@ -5301,8 +5285,8 @@
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>6</v>
+      <c r="B171" s="1">
+        <v>2</v>
       </c>
       <c r="C171" s="1">
         <v>0.261628049528013</v>
@@ -5330,8 +5314,8 @@
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>6</v>
+      <c r="B172" s="1">
+        <v>2</v>
       </c>
       <c r="C172" s="1">
         <v>0.120399656736545</v>
@@ -5359,8 +5343,8 @@
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>6</v>
+      <c r="B173" s="1">
+        <v>2</v>
       </c>
       <c r="C173" s="1">
         <v>0.42649258305749699</v>
@@ -5388,8 +5372,8 @@
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>6</v>
+      <c r="B174" s="1">
+        <v>2</v>
       </c>
       <c r="C174" s="1">
         <v>0.195966654407258</v>
@@ -5417,8 +5401,8 @@
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>6</v>
+      <c r="B175" s="1">
+        <v>2</v>
       </c>
       <c r="C175" s="1">
         <v>0.148645335294839</v>
@@ -5446,8 +5430,8 @@
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>6</v>
+      <c r="B176" s="1">
+        <v>2</v>
       </c>
       <c r="C176" s="1">
         <v>0.27761431898982503</v>
@@ -5475,8 +5459,8 @@
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>6</v>
+      <c r="B177" s="1">
+        <v>2</v>
       </c>
       <c r="C177" s="1">
         <v>0.32998651464999401</v>
@@ -5504,8 +5488,8 @@
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>6</v>
+      <c r="B178" s="1">
+        <v>2</v>
       </c>
       <c r="C178" s="1">
         <v>0.140014711290916</v>
@@ -5533,8 +5517,8 @@
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>6</v>
+      <c r="B179" s="1">
+        <v>2</v>
       </c>
       <c r="C179" s="1">
         <v>0.53790609292632097</v>
@@ -5562,8 +5546,8 @@
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>6</v>
+      <c r="B180" s="1">
+        <v>2</v>
       </c>
       <c r="C180" s="1">
         <v>0.210825058232193</v>
@@ -5591,8 +5575,8 @@
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>6</v>
+      <c r="B181" s="1">
+        <v>2</v>
       </c>
       <c r="C181" s="1">
         <v>0.29745004290793198</v>
@@ -5620,8 +5604,8 @@
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>6</v>
+      <c r="B182" s="1">
+        <v>2</v>
       </c>
       <c r="C182" s="1">
         <v>0.24365575579257101</v>
@@ -5649,8 +5633,8 @@
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>6</v>
+      <c r="B183" s="1">
+        <v>2</v>
       </c>
       <c r="C183" s="1">
         <v>0.29173715826897101</v>
@@ -5678,8 +5662,8 @@
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>6</v>
+      <c r="B184" s="1">
+        <v>2</v>
       </c>
       <c r="C184" s="1">
         <v>0.175125658943239</v>
@@ -5707,8 +5691,8 @@
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>6</v>
+      <c r="B185" s="1">
+        <v>2</v>
       </c>
       <c r="C185" s="1">
         <v>0.41187936741449099</v>
@@ -5736,8 +5720,8 @@
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>6</v>
+      <c r="B186" s="1">
+        <v>2</v>
       </c>
       <c r="C186" s="1">
         <v>0.28930979526786799</v>
@@ -5765,8 +5749,8 @@
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>6</v>
+      <c r="B187" s="1">
+        <v>2</v>
       </c>
       <c r="C187" s="1">
         <v>0.42053451023660698</v>
@@ -5794,8 +5778,8 @@
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>6</v>
+      <c r="B188" s="1">
+        <v>2</v>
       </c>
       <c r="C188" s="1">
         <v>0.31392668873360302</v>
@@ -5823,8 +5807,8 @@
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>6</v>
+      <c r="B189" s="1">
+        <v>2</v>
       </c>
       <c r="C189" s="1">
         <v>0.15043520902292501</v>
@@ -5852,8 +5836,8 @@
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>6</v>
+      <c r="B190" s="1">
+        <v>2</v>
       </c>
       <c r="C190" s="1">
         <v>0.41031016305014101</v>
@@ -5881,8 +5865,8 @@
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>6</v>
+      <c r="B191" s="1">
+        <v>2</v>
       </c>
       <c r="C191" s="1">
         <v>0.12559764619345301</v>
@@ -5910,8 +5894,8 @@
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>6</v>
+      <c r="B192" s="1">
+        <v>2</v>
       </c>
       <c r="C192" s="1">
         <v>0.431617016059826</v>
@@ -5939,8 +5923,8 @@
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>6</v>
+      <c r="B193" s="1">
+        <v>2</v>
       </c>
       <c r="C193" s="1">
         <v>0.24529851661149901</v>
@@ -5968,8 +5952,8 @@
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>6</v>
+      <c r="B194" s="1">
+        <v>2</v>
       </c>
       <c r="C194" s="1">
         <v>0.19905602549957099</v>
@@ -5997,8 +5981,8 @@
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>6</v>
+      <c r="B195" s="1">
+        <v>2</v>
       </c>
       <c r="C195" s="1">
         <v>0.21327694005149</v>
@@ -6026,8 +6010,8 @@
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>6</v>
+      <c r="B196" s="1">
+        <v>2</v>
       </c>
       <c r="C196" s="1">
         <v>0.35148951820522301</v>
@@ -6055,8 +6039,8 @@
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>6</v>
+      <c r="B197" s="1">
+        <v>2</v>
       </c>
       <c r="C197" s="1">
         <v>0.137195047198725</v>
@@ -6084,8 +6068,8 @@
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>6</v>
+      <c r="B198" s="1">
+        <v>2</v>
       </c>
       <c r="C198" s="1">
         <v>0.17500306485227399</v>
@@ -6113,8 +6097,8 @@
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>6</v>
+      <c r="B199" s="1">
+        <v>2</v>
       </c>
       <c r="C199" s="1">
         <v>0.122140492828246</v>
@@ -6142,8 +6126,8 @@
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>6</v>
+      <c r="B200" s="1">
+        <v>2</v>
       </c>
       <c r="C200" s="1">
         <v>0.13815128110825101</v>
@@ -6171,8 +6155,8 @@
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>6</v>
+      <c r="B201" s="1">
+        <v>2</v>
       </c>
       <c r="C201" s="1">
         <v>0.152102488660047</v>
@@ -6200,8 +6184,8 @@
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>6</v>
+      <c r="B202" s="1">
+        <v>2</v>
       </c>
       <c r="C202" s="1">
         <v>0.49654284663479198</v>
@@ -6229,8 +6213,8 @@
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>6</v>
+      <c r="B203" s="1">
+        <v>2</v>
       </c>
       <c r="C203" s="1">
         <v>0.243165379428712</v>
@@ -6258,8 +6242,8 @@
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>6</v>
+      <c r="B204" s="1">
+        <v>2</v>
       </c>
       <c r="C204" s="1">
         <v>0.28602427363001098</v>
@@ -6287,8 +6271,8 @@
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>6</v>
+      <c r="B205" s="1">
+        <v>2</v>
       </c>
       <c r="C205" s="1">
         <v>0.19197008704180499</v>
@@ -6316,8 +6300,8 @@
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>6</v>
+      <c r="B206" s="1">
+        <v>2</v>
       </c>
       <c r="C206" s="1">
         <v>0.19201912467819099</v>
@@ -6345,8 +6329,8 @@
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>6</v>
+      <c r="B207" s="1">
+        <v>2</v>
       </c>
       <c r="C207" s="1">
         <v>0.30497732009317202</v>
@@ -6374,8 +6358,8 @@
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>6</v>
+      <c r="B208" s="1">
+        <v>2</v>
       </c>
       <c r="C208" s="1">
         <v>0.222079195782763</v>
@@ -6403,8 +6387,8 @@
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>6</v>
+      <c r="B209" s="1">
+        <v>2</v>
       </c>
       <c r="C209" s="1">
         <v>0.33180090719627298</v>
@@ -6432,8 +6416,8 @@
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>6</v>
+      <c r="B210" s="1">
+        <v>2</v>
       </c>
       <c r="C210" s="1">
         <v>0.13876425156307501</v>
@@ -6461,8 +6445,8 @@
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>6</v>
+      <c r="B211" s="1">
+        <v>2</v>
       </c>
       <c r="C211" s="1">
         <v>0.183462057128846</v>
